--- a/features.xlsx
+++ b/features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <t>Feature</t>
   </si>
@@ -124,6 +124,9 @@
     <t>The number of failed login attempts. It represents the count of failed login attempts in the session.</t>
   </si>
   <si>
+    <t>Bin?</t>
+  </si>
+  <si>
     <t>LoggedIn</t>
   </si>
   <si>
@@ -178,10 +181,13 @@
     <t>The number of outbound commands. It represents the count of outbound commands in the session.</t>
   </si>
   <si>
+    <t>One single value</t>
+  </si>
+  <si>
     <t>IsHostLogin</t>
   </si>
   <si>
-    <t>Indicates if the login belongs to the "hot" list. It is a binary field that indicates if the login belongs to the "hot" list.</t>
+    <t>Indicates whether the login is a host login, which is a login attempt where the source of the login is a host machine, as opposed to a user login where the source is a specific user. It has a value of 1 if the login is a host login and 0 otherwise.</t>
   </si>
   <si>
     <t>IsGuestLogin</t>
@@ -318,8 +324,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -347,16 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,11 +376,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,7 +445,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,76 +468,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -485,13 +491,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,144 +659,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -648,24 +672,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,21 +682,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -713,7 +704,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,17 +729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,9 +750,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,120 +787,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,19 +910,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +941,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1438,17 +1447,17 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,24 +1470,33 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:4">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1487,12 +1505,15 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1501,40 +1522,52 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1543,12 +1576,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1557,40 +1596,52 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -1599,12 +1650,21 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1613,12 +1673,15 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1627,12 +1690,15 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1641,12 +1707,15 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1655,110 +1724,155 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="28.5" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" ht="28.5" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:7">
       <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" ht="28.5" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" ht="28.5" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" ht="28.5" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -1767,12 +1881,15 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" ht="28.5" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -1781,124 +1898,175 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" ht="42.75" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" ht="42.75" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="42.75" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" ht="42.75" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="42.75" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" ht="42.75" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="42.75" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="28.5" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" ht="42.75" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="42.75" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" ht="42.75" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" ht="42.75" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" ht="28.5" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -1907,7 +2075,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/features.xlsx
+++ b/features.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$N$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$D$127</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="152">
   <si>
     <t>Feature</t>
   </si>
@@ -53,10 +54,10 @@
     <t>IsProbeAttack</t>
   </si>
   <si>
-    <t>IsR2Lattack</t>
-  </si>
-  <si>
-    <t>IsU2Rattack</t>
+    <t>IsR2LAttack</t>
+  </si>
+  <si>
+    <t>IsU2RAttack</t>
   </si>
   <si>
     <t>IsOtherAttack</t>
@@ -290,7 +291,7 @@
     <t>The number of connections to the same service in the past two seconds. It represents the count of connections to the same service within a specific time window.</t>
   </si>
   <si>
-    <t>This one too, from its functional description only, one could say it has to be seomehow related to some of the cyber attacks. In fact it shows signs of good relation with plenty of variables that also hold service connection counts and, as well as "Count", it appears among the well related features to the "IsAttack" and "IsDosAttack" response variables.</t>
+    <t>This one too, from its functional description only, one could say it has to be seomehow related to some of the cyber attacks. In fact it shows signs of good relation with plenty of variables that also hold service connection counts and, as well as "Count", it appears among the well related features to the "Attack" and "IsDosAttack" response variables.</t>
   </si>
   <si>
     <t>SerrorRate</t>
@@ -453,7 +454,13 @@
     <t>Boolean flag indicating whether a Probe attack was observed.</t>
   </si>
   <si>
+    <t>IsR2Lattack</t>
+  </si>
+  <si>
     <t>Boolean flag indicating whether a R2L attack was observed.</t>
+  </si>
+  <si>
+    <t>IsU2Rattack</t>
   </si>
   <si>
     <t>Boolean flag indicating whether a U2R attack was observed.</t>
@@ -476,8 +483,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -513,9 +520,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,9 +581,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,9 +603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,20 +620,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +635,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,53 +650,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,18 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -683,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +701,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +749,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,103 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,17 +883,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,25 +916,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -949,27 +946,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,142 +985,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,16 +1150,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1475,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1543,30 +1544,30 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>IFERROR(IF(FIND(G$1,$F2,1)&gt;=1,"Yes",""),"")</f>
+        <f>IFERROR(IF(FIND(G$1,$F2,1)&gt;=1,$E2,""),"")</f>
         <v>Yes</v>
       </c>
       <c r="H2" s="5" t="str">
-        <f t="shared" ref="H2:N2" si="0">IFERROR(IF(FIND(H$1,$F2,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" ref="H2:N2" si="0">IFERROR(IF(FIND(H$1,$F2,1)&gt;=1,$E2,""),"")</f>
         <v/>
       </c>
       <c r="I2" s="5" t="str">
@@ -1582,11 +1583,11 @@
         <v/>
       </c>
       <c r="L2" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF(FIND(L$1,$F2,1)&gt;=1,$E2,""),"")</f>
         <v/>
       </c>
       <c r="M2" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF(FIND(M$1,$F2,1)&gt;=1,$E2,""),"")</f>
         <v/>
       </c>
       <c r="N2" s="5" t="str">
@@ -1595,74 +1596,74 @@
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:14">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G50" si="1">IFERROR(IF(FIND(G$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" ref="G3:G50" si="1">IFERROR(IF(FIND(G$1,$F3,1)&gt;=1,$E3,""),"")</f>
         <v>Yes</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H50" si="2">IFERROR(IF(FIND(H$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" ref="H3:N3" si="2">IFERROR(IF(FIND(H$1,$F3,1)&gt;=1,$E3,""),"")</f>
         <v/>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I50" si="3">IFERROR(IF(FIND(I$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J50" si="4">IFERROR(IF(FIND(J$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K50" si="5">IFERROR(IF(FIND(K$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L3" s="5" t="str">
-        <f t="shared" ref="L3:L50" si="6">IFERROR(IF(FIND(L$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" ref="L3:L50" si="3">IFERROR(IF(FIND(L$1,$F3,1)&gt;=1,$E3,""),"")</f>
         <v/>
       </c>
       <c r="M3" s="5" t="str">
-        <f t="shared" ref="M3:M50" si="7">IFERROR(IF(FIND(M$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" ref="M3:M50" si="4">IFERROR(IF(FIND(M$1,$F3,1)&gt;=1,$E3,""),"")</f>
         <v/>
       </c>
       <c r="N3" s="5" t="str">
-        <f t="shared" ref="N3:N50" si="8">IFERROR(IF(FIND(N$1,$F3,1)&gt;=1,"Yes",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="5" t="str">
@@ -1670,15 +1671,15 @@
         <v/>
       </c>
       <c r="H4" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H4:N4" si="5">IFERROR(IF(FIND(H$1,$F4,1)&gt;=1,$E4,""),"")</f>
         <v/>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J4" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K4" s="5" t="str">
@@ -1686,35 +1687,35 @@
         <v/>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M4" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N4" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:14">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -1722,987 +1723,987 @@
         <v>Yes</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H5:N5" si="6">IFERROR(IF(FIND(H$1,$F5,1)&gt;=1,$E5,""),"")</f>
         <v/>
       </c>
       <c r="I5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" ref="H6:N6" si="7">IFERROR(IF(FIND(H$1,$F6,1)&gt;=1,$E6,""),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" ref="H7:N7" si="8">IFERROR(IF(FIND(H$1,$F7,1)&gt;=1,$E7,""),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="71.25" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" ref="H8:N8" si="9">IFERROR(IF(FIND(H$1,$F8,1)&gt;=1,$E8,""),"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" ref="H9:N9" si="10">IFERROR(IF(FIND(H$1,$F9,1)&gt;=1,$E9,""),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" ref="H10:N10" si="11">IFERROR(IF(FIND(H$1,$F10,1)&gt;=1,$E10,""),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" ref="H11:N11" si="12">IFERROR(IF(FIND(H$1,$F11,1)&gt;=1,$E11,""),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" ref="H12:N12" si="13">IFERROR(IF(FIND(H$1,$F12,1)&gt;=1,$E12,""),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L12" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="M12" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" ref="H13:N13" si="14">IFERROR(IF(FIND(H$1,$F13,1)&gt;=1,$E13,""),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" ref="H14:N14" si="15">IFERROR(IF(FIND(H$1,$F14,1)&gt;=1,$E14,""),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" ref="H15:N15" si="16">IFERROR(IF(FIND(H$1,$F15,1)&gt;=1,$E15,""),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M15" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N5" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:14">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="N15" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:14">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" ref="H16:N16" si="17">IFERROR(IF(FIND(H$1,$F16,1)&gt;=1,$E16,""),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:14">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I6" s="5" t="str">
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" ref="H17:N17" si="18">IFERROR(IF(FIND(H$1,$F17,1)&gt;=1,$E17,""),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L17" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="M17" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K6" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L6" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M6" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N6" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:14">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="N17" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I7" s="5" t="str">
+      <c r="F18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" ref="H18:N18" si="19">IFERROR(IF(FIND(H$1,$F18,1)&gt;=1,$E18,""),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L18" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="M18" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K7" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M7" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N7" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="71.25" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="N18" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:14">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="str">
+      <c r="F19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I8" s="5" t="str">
+      <c r="H19" s="5" t="str">
+        <f t="shared" ref="H19:N19" si="20">IFERROR(IF(FIND(H$1,$F19,1)&gt;=1,$E19,""),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L19" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="M19" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N8" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:14">
-      <c r="A9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="N19" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:14">
+      <c r="A20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" ref="H20:N20" si="21">IFERROR(IF(FIND(H$1,$F20,1)&gt;=1,$E20,""),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I9" s="5" t="str">
+      <c r="F21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" ref="H21:N21" si="22">IFERROR(IF(FIND(H$1,$F21,1)&gt;=1,$E21,""),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L21" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="M21" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M9" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N9" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:14">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="N21" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="1:14">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="str">
+      <c r="F22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I10" s="5" t="str">
+      <c r="H22" s="5" t="str">
+        <f t="shared" ref="H22:N22" si="23">IFERROR(IF(FIND(H$1,$F22,1)&gt;=1,$E22,""),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L22" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="M22" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N10" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:14">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="N22" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:14">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L11" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N11" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="1:14">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="5" t="str">
+      <c r="F23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L12" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N12" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="57" spans="1:14">
-      <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H23" s="5" t="str">
+        <f t="shared" ref="H23:N23" si="24">IFERROR(IF(FIND(H$1,$F23,1)&gt;=1,$E23,""),"")</f>
         <v>Yes</v>
       </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="I13" s="5" t="str">
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L23" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="M23" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N13" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:14">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v/>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="42.75" spans="1:14">
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N14" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="57" spans="1:14">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M15" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N15" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:14">
-      <c r="A16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L16" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M16" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N16" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:14">
-      <c r="A17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L17" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M17" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N17" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L18" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M18" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N18" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:14">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L19" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M19" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N19" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:14">
-      <c r="A20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N20" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="42.75" spans="1:14">
-      <c r="A22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N22" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:14">
-      <c r="A23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="42.75" spans="1:14">
-      <c r="A24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="5" t="str">
@@ -2710,51 +2711,51 @@
         <v>Yes</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H24:N24" si="25">IFERROR(IF(FIND(H$1,$F24,1)&gt;=1,$E24,""),"")</f>
         <v/>
       </c>
       <c r="I24" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J24" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M24" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N24" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="25" ht="57" spans="1:14">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="5" t="str">
@@ -2762,51 +2763,51 @@
         <v>Yes</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H25:N25" si="26">IFERROR(IF(FIND(H$1,$F25,1)&gt;=1,$E25,""),"")</f>
         <v/>
       </c>
       <c r="I25" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Yes</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J25" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M25" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L25" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M25" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N25" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:14">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="5" t="str">
@@ -2814,207 +2815,207 @@
         <v>Yes</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H26:N26" si="27">IFERROR(IF(FIND(H$1,$F26,1)&gt;=1,$E26,""),"")</f>
         <v/>
       </c>
       <c r="I26" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>Yes</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>Yes</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J26" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M26" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M26" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N26" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="27" ht="42.75" spans="1:14">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H27:N27" si="28">IFERROR(IF(FIND(H$1,$F27,1)&gt;=1,$E27,""),"")</f>
         <v/>
       </c>
       <c r="I27" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J27" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M27" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N27" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:14">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H28:N28" si="29">IFERROR(IF(FIND(H$1,$F28,1)&gt;=1,$E28,""),"")</f>
         <v/>
       </c>
       <c r="I28" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J28" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N28" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="29" ht="28.5" spans="1:14">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H29:N29" si="30">IFERROR(IF(FIND(H$1,$F29,1)&gt;=1,$E29,""),"")</f>
         <v/>
       </c>
       <c r="I29" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J29" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M29" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L29" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N29" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="30" ht="28.5" spans="1:14">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="5" t="str">
@@ -3022,51 +3023,51 @@
         <v>Yes</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H30:N30" si="31">IFERROR(IF(FIND(H$1,$F30,1)&gt;=1,$E30,""),"")</f>
         <v/>
       </c>
       <c r="I30" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J30" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M30" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L30" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M30" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N30" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:14">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="5" t="str">
@@ -3074,51 +3075,51 @@
         <v>Yes</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H31:N31" si="32">IFERROR(IF(FIND(H$1,$F31,1)&gt;=1,$E31,""),"")</f>
         <v/>
       </c>
       <c r="I31" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="L31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J31" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M31" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K31" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Yes</v>
-      </c>
-      <c r="L31" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M31" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N31" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:14">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="5" t="str">
@@ -3126,51 +3127,51 @@
         <v/>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H32:N32" si="33">IFERROR(IF(FIND(H$1,$F32,1)&gt;=1,$E32,""),"")</f>
         <v/>
       </c>
       <c r="I32" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L32" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="M32" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L32" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M32" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N32" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:14">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G33" s="5" t="str">
@@ -3178,51 +3179,51 @@
         <v>Yes</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H33:N33" si="34">IFERROR(IF(FIND(H$1,$F33,1)&gt;=1,$E33,""),"")</f>
         <v/>
       </c>
       <c r="I33" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L33" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J33" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L33" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M33" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N33" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:14">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="5" t="str">
@@ -3230,51 +3231,51 @@
         <v>Yes</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H34:N34" si="35">IFERROR(IF(FIND(H$1,$F34,1)&gt;=1,$E34,""),"")</f>
         <v/>
       </c>
       <c r="I34" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L34" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J34" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M34" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L34" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M34" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N34" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="35" ht="42.75" spans="1:14">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G35" s="5" t="str">
@@ -3282,51 +3283,51 @@
         <v>Yes</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H35:N35" si="36">IFERROR(IF(FIND(H$1,$F35,1)&gt;=1,$E35,""),"")</f>
         <v/>
       </c>
       <c r="I35" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L35" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J35" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M35" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L35" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M35" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N35" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="36" ht="42.75" spans="1:14">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G36" s="5" t="str">
@@ -3334,51 +3335,51 @@
         <v>Yes</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H36:N36" si="37">IFERROR(IF(FIND(H$1,$F36,1)&gt;=1,$E36,""),"")</f>
         <v/>
       </c>
       <c r="I36" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="L36" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J36" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M36" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Yes</v>
-      </c>
-      <c r="L36" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M36" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N36" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:14">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="5" t="str">
@@ -3386,51 +3387,51 @@
         <v/>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H37:N37" si="38">IFERROR(IF(FIND(H$1,$F37,1)&gt;=1,$E37,""),"")</f>
         <v/>
       </c>
       <c r="I37" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="L37" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J37" s="5" t="str">
+      <c r="M37" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L37" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M37" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N37" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="38" ht="42.75" spans="1:14">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="5" t="str">
@@ -3438,51 +3439,51 @@
         <v/>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H38:N38" si="39">IFERROR(IF(FIND(H$1,$F38,1)&gt;=1,$E38,""),"")</f>
         <v/>
       </c>
       <c r="I38" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K38" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L38" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J38" s="5" t="str">
+      <c r="M38" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L38" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M38" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N38" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:14">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="5" t="str">
@@ -3490,51 +3491,51 @@
         <v>Yes</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H39:N39" si="40">IFERROR(IF(FIND(H$1,$F39,1)&gt;=1,$E39,""),"")</f>
         <v/>
       </c>
       <c r="I39" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>Yes</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>Yes</v>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="L39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J39" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L39" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M39" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N39" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="40" ht="42.75" spans="1:14">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="5" t="str">
@@ -3542,51 +3543,51 @@
         <v>Yes</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H40:N40" si="41">IFERROR(IF(FIND(H$1,$F40,1)&gt;=1,$E40,""),"")</f>
         <v/>
       </c>
       <c r="I40" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="K40" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L40" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J40" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M40" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L40" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M40" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N40" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="41" ht="57" spans="1:14">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G41" s="5" t="str">
@@ -3594,103 +3595,103 @@
         <v>Yes</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H41:N41" si="42">IFERROR(IF(FIND(H$1,$F41,1)&gt;=1,$E41,""),"")</f>
         <v/>
       </c>
       <c r="I41" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>Yes</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>Yes</v>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L41" s="5" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N41" s="5" t="str">
+        <f t="shared" si="42"/>
         <v>Yes</v>
       </c>
-      <c r="J41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K41" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L41" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M41" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N41" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
     </row>
     <row r="42" ht="42.75" spans="1:14">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H42:N42" si="43">IFERROR(IF(FIND(H$1,$F42,1)&gt;=1,$E42,""),"")</f>
         <v/>
       </c>
       <c r="I42" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>No</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>No</v>
+      </c>
+      <c r="K42" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L42" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="J42" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M42" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="K42" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L42" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M42" s="5" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N42" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:14">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>137</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G43" s="5" t="str">
@@ -3698,31 +3699,31 @@
         <v/>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H43:N43" si="44">IFERROR(IF(FIND(H$1,$F43,1)&gt;=1,$E43,""),"")</f>
         <v/>
       </c>
       <c r="I43" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K43" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L43" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J43" s="5" t="str">
+      <c r="M43" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K43" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L43" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M43" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N43" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -3742,7 +3743,7 @@
       <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G44" s="5" t="str">
@@ -3750,31 +3751,31 @@
         <v/>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H44:N44" si="45">IFERROR(IF(FIND(H$1,$F44,1)&gt;=1,$E44,""),"")</f>
         <v/>
       </c>
       <c r="I44" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K44" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L44" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="M44" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K44" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L44" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M44" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N44" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
@@ -3794,7 +3795,7 @@
       <c r="E45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G45" s="5" t="str">
@@ -3802,31 +3803,31 @@
         <v/>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H45:N45" si="46">IFERROR(IF(FIND(H$1,$F45,1)&gt;=1,$E45,""),"")</f>
         <v/>
       </c>
       <c r="I45" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K45" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L45" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="M45" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K45" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L45" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M45" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N45" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G46" s="5" t="str">
@@ -3854,31 +3855,31 @@
         <v/>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H46:N46" si="47">IFERROR(IF(FIND(H$1,$F46,1)&gt;=1,$E46,""),"")</f>
         <v/>
       </c>
       <c r="I46" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K46" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L46" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="M46" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K46" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L46" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M46" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N46" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -3898,7 +3899,7 @@
       <c r="E47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G47" s="5" t="str">
@@ -3906,37 +3907,37 @@
         <v/>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H47:N47" si="48">IFERROR(IF(FIND(H$1,$F47,1)&gt;=1,$E47,""),"")</f>
         <v/>
       </c>
       <c r="I47" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K47" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L47" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="M47" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K47" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L47" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M47" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N47" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>140</v>
@@ -3945,12 +3946,12 @@
         <v>136</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G48" s="5" t="str">
@@ -3958,37 +3959,37 @@
         <v/>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H48:N48" si="49">IFERROR(IF(FIND(H$1,$F48,1)&gt;=1,$E48,""),"")</f>
         <v/>
       </c>
       <c r="I48" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L48" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="M48" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K48" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L48" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M48" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N48" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="5" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>140</v>
@@ -3997,12 +3998,12 @@
         <v>136</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G49" s="5" t="str">
@@ -4010,31 +4011,31 @@
         <v/>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H49:N49" si="50">IFERROR(IF(FIND(H$1,$F49,1)&gt;=1,$E49,""),"")</f>
         <v/>
       </c>
       <c r="I49" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L49" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="M49" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L49" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M49" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N49" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -4049,12 +4050,12 @@
         <v>136</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G50" s="5" t="str">
@@ -4062,35 +4063,38 @@
         <v/>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H50:N50" si="51">IFERROR(IF(FIND(H$1,$F50,1)&gt;=1,$E50,""),"")</f>
         <v/>
       </c>
       <c r="I50" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K50" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L50" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J50" s="5" t="str">
+      <c r="M50" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L50" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M50" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="N50" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N50">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4118,13 +4122,13 @@
     <row r="1" ht="15" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:9">
@@ -4588,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -4614,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5281,7 +5285,7 @@
         <v>58</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4">
         <v>-0.36566</v>
@@ -5425,7 +5429,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D77" s="4">
         <v>-0.42061</v>
@@ -5614,7 +5618,7 @@
         <v>82</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D93" s="4">
         <v>-0.46598</v>
